--- a/target/DatosExcel/DatosCreditoEmpresarialRefinanciacionMismoPagare.xlsx
+++ b/target/DatosExcel/DatosCreditoEmpresarialRefinanciacionMismoPagare.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CMACPiura_2022\target\DatosExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CMACPiura_2022\CMACPiura_2022\target\DatosExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>Cliente</t>
   </si>
@@ -134,14 +134,19 @@
     <t>23/02/2022</t>
   </si>
   <si>
-    <t>4978711</t>
+    <t>Vacio</t>
+  </si>
+  <si>
+    <t>4978844</t>
+  </si>
+  <si>
+    <t>Se han encontrado errores en la Validacion de la Propuesta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -205,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -216,6 +221,7 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,27 +504,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.0" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.140625" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="35.85546875" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="27.7109375" collapsed="false"/>
-    <col min="6" max="7" bestFit="true" customWidth="true" width="14.42578125" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.7109375" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.7109375" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.140625" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.0" collapsed="false"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.28515625" collapsed="false"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.7109375" collapsed="false"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="13.28515625" collapsed="false"/>
-    <col min="18" max="18" customWidth="true" hidden="true" width="17.85546875" collapsed="false"/>
-    <col min="19" max="19" customWidth="true" hidden="true" width="40.140625" collapsed="false"/>
-    <col min="20" max="20" customWidth="true" hidden="true" width="0.0" collapsed="false"/>
-    <col min="21" max="21" customWidth="true" width="19.28515625" collapsed="false"/>
-    <col min="22" max="22" customWidth="true" width="32.0" collapsed="false"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="17" width="12.28515625" customWidth="1"/>
+    <col min="18" max="18" width="13" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="54.28515625" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="2" customFormat="1">
@@ -568,9 +578,18 @@
         <v>34</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="U1" s="3" t="s">
@@ -626,16 +645,26 @@
       <c r="O2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="U2" t="s">
-        <v>36</v>
+      <c r="U2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/target/DatosExcel/DatosCreditoEmpresarialRefinanciacionMismoPagare.xlsx
+++ b/target/DatosExcel/DatosCreditoEmpresarialRefinanciacionMismoPagare.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <workbookPr/>
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CMACPiura_2022\CMACPiura_2022\target\DatosExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProyectoAutomatizacion\CMACPiura_2022\target\DatosExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97395D8F-F8F8-4D63-98B0-59EF9D269727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Cliente</t>
   </si>
@@ -119,12 +120,6 @@
     <t>NORMAL</t>
   </si>
   <si>
-    <t>21838047</t>
-  </si>
-  <si>
-    <t>080-01-1286701</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
@@ -137,16 +132,20 @@
     <t>Vacio</t>
   </si>
   <si>
-    <t>4978844</t>
-  </si>
-  <si>
-    <t>Se han encontrado errores en la Validacion de la Propuesta</t>
+    <t>20570822</t>
+  </si>
+  <si>
+    <t>080-01-7781482</t>
+  </si>
+  <si>
+    <t>4978920</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -501,34 +500,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="17" width="12.28515625" customWidth="1"/>
-    <col min="18" max="18" width="13" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="54.28515625" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="33" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.1796875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="35.81640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="27.7265625" collapsed="true"/>
+    <col min="6" max="7" bestFit="true" customWidth="true" width="14.453125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.7265625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.7265625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.1796875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.26953125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.7265625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="13.26953125" collapsed="true"/>
+    <col min="16" max="17" customWidth="true" width="12.26953125" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="15.7265625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="11.453125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="19.26953125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="54.26953125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="33.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="2" customFormat="1">
@@ -575,16 +574,16 @@
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="Q1" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>14</v>
@@ -601,7 +600,7 @@
     </row>
     <row r="2" spans="1:22" s="7" customFormat="1">
       <c r="A2" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>18</v>
@@ -619,7 +618,7 @@
         <v>20</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>21</v>
@@ -640,10 +639,10 @@
         <v>26</v>
       </c>
       <c r="N2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="P2" s="7">
         <v>1</v>
@@ -660,12 +659,10 @@
       <c r="T2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" t="s">
         <v>37</v>
       </c>
-      <c r="V2" t="s">
-        <v>38</v>
-      </c>
+      <c r="V2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
